--- a/Gestión de Riesgos/Registro de Riesgos v1.0.xlsx
+++ b/Gestión de Riesgos/Registro de Riesgos v1.0.xlsx
@@ -12,19 +12,16 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Registro!$12:$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Educa-T</t>
-  </si>
-  <si>
     <t>Registro de Riesgo</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>Número de Versión</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Responsable del Riesgo</t>
   </si>
   <si>
@@ -49,13 +43,7 @@
     <t>Riesgo #</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayor complejidad de la prevista en el desarrollo e integración de todos los procesos de negocio empresarial de la Oficina Central de Fe y Alegría Perú. </t>
-  </si>
-  <si>
     <t>Carencia de recursos asignados al proyecto por parte de la Gerencia de Proyectos y Recursos Humanos de la Empresa Virtual Educa-T.</t>
-  </si>
-  <si>
-    <t>Insatisfacción por parte del cliente con el trabajo realizado durante el Proyecto.</t>
   </si>
   <si>
     <t>Cambios radicales en los procesos de la Oficina Central de Fe y Alegría después de que hayan sido modelados.</t>
@@ -98,9 +86,6 @@
     <t xml:space="preserve">Incentivar el compromiso por parte de la Organización </t>
   </si>
   <si>
-    <t>Poseer un alto manejo de los procesos modelados en el Proyecto Profesional "Modelo de Negocios Empresarial de la Oficina Central Fe y Alegría Perú"</t>
-  </si>
-  <si>
     <t>Verificación permanente de los procesos modelados por parte de la Oficina Central de Fe y Alegría Perú</t>
   </si>
   <si>
@@ -110,18 +95,9 @@
     <t>Solicitar un recurso al Gerente de Recursos Humanos de la Empresa Educa-T/SSIA como apoyo para el desarrollo del proyecto</t>
   </si>
   <si>
-    <t>Realizar un estudio previo del Proyecto Profesional "Modelo de Negocios Empresarial de la Oficina Central Fe y Alegría Perú", previa a la realización de entrevistas</t>
-  </si>
-  <si>
-    <t>Realización de entrevistas programadas para que las personas involucradas verifiquen los procesos que se están modelando y se realicen los cambios a tiempo</t>
-  </si>
-  <si>
     <t>Falta de tiempo del Departamento de Administración para brindar información durante el Proyecto Profesional "Modelo de Negocios Empresarial de la Oficina Central Fe y Alegría Perú"</t>
   </si>
   <si>
-    <t>Duración excesiva de las actividades de modelado de los procesos</t>
-  </si>
-  <si>
     <t>Retraso en las actividades de modelado de los procesos</t>
   </si>
   <si>
@@ -131,28 +107,13 @@
     <t>Modificación reiterativa de procesos modelados</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Conocimiento insuficiente de la temática del Proyecto (Procesos Administrativos)</t>
-  </si>
-  <si>
-    <t>Incumplimiento de los Indicadores de éxito del Proyecto</t>
-  </si>
-  <si>
     <t>Insuficiencia de Recursos TP1 y TP2 en la Empresa Virtual Educa-T</t>
   </si>
   <si>
-    <t>Falta de revisión del avance realizado por parte del Cliente</t>
-  </si>
-  <si>
     <t>Carencia de comunicación constante con el Cliente</t>
   </si>
   <si>
     <t>Fecha de Finalización</t>
-  </si>
-  <si>
-    <t>Comunicación constante con la Oficina Central de Fe y Alegría Perú</t>
   </si>
   <si>
     <t>José Ramos
@@ -163,10 +124,6 @@
 Susan Rios</t>
   </si>
   <si>
-    <t>José Ramos
-Susan Rios</t>
-  </si>
-  <si>
     <t>José Ramos Susan Rios</t>
   </si>
   <si>
@@ -174,6 +131,30 @@
   </si>
   <si>
     <t>REGISTRO DE RIESGOS</t>
+  </si>
+  <si>
+    <t>Cambios en la metodología de modelatmiento utilizada en la Universidad.</t>
+  </si>
+  <si>
+    <t>Modificación de los procesos modelados, tanto en el anterior proyecto, como en el actual.</t>
+  </si>
+  <si>
+    <t>Actualización de la metodología de modelamiento enseñanada en los cursos de la Carrera de Ingeniería de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Realización de entrevistas programadas para que las personas involucradas verifiquen los procesos que se están modelando y se realicen los cambios a tiempo.</t>
+  </si>
+  <si>
+    <t>Modificar los procesos en horas extras a las planificadas para la Definición de Procesos.</t>
+  </si>
+  <si>
+    <t>Reajustar el cronograma del Proyecto.</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>SSIA.EDUCATE</t>
   </si>
 </sst>
 </file>
@@ -232,7 +213,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +223,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,144 +254,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -527,14 +374,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -543,10 +403,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -556,167 +416,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -728,58 +447,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -792,51 +459,83 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -844,96 +543,22 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1023,22 +648,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>781051</xdr:colOff>
+      <xdr:colOff>1845128</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174239</xdr:rowOff>
+      <xdr:rowOff>89806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen" descr="logo EDUCA-T"/>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="http://a8.sphotos.ak.fbcdn.net/hphotos-ak-ash4/391843_322516517765877_100000225955180_1491000_517867298_n.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1051,23 +676,20 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="7487"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="1333500" cy="650488"/>
+          <a:off x="0" y="326571"/>
+          <a:ext cx="2661557" cy="892628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1075,16 +697,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1386,361 +998,327 @@
   </sheetPr>
   <dimension ref="A6:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="6" style="58" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="12.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>6</v>
+      <c r="A9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="A10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="E12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" ref="H14:H17" si="0">SUM(E14:G14)</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>43</v>
+      <c r="K14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="30">
+        <v>40627</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="32" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="29" t="s">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>2</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="J15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="30">
+        <v>40637</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="37">
-        <v>3</v>
-      </c>
-      <c r="F14" s="38">
+      <c r="G16" s="11">
         <v>2</v>
       </c>
-      <c r="G14" s="39">
-        <v>1</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" ref="H14:H18" si="0">SUM(E14:G14)</f>
-        <v>6</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="42">
-        <v>40627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A15" s="44">
-        <v>2</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="48">
-        <v>2</v>
-      </c>
-      <c r="F15" s="49">
-        <v>2</v>
-      </c>
-      <c r="G15" s="50">
-        <v>2</v>
-      </c>
-      <c r="H15" s="51">
+      <c r="H16" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="53">
-        <v>40632</v>
+      <c r="I16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="30">
+        <v>40857</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="44">
+    <row r="17" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>4</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="48">
-        <v>1</v>
-      </c>
-      <c r="F16" s="49">
-        <v>1</v>
-      </c>
-      <c r="G16" s="50">
+      <c r="F17" s="11">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="53">
-        <v>40637</v>
+        <v>8</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="30">
+        <v>40867</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
-        <v>4</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="48">
-        <v>3</v>
-      </c>
-      <c r="F17" s="49">
-        <v>2</v>
-      </c>
-      <c r="G17" s="50">
-        <v>1</v>
-      </c>
-      <c r="H17" s="51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="43" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
-        <v>5</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="48">
-        <v>3</v>
-      </c>
-      <c r="F18" s="49">
-        <v>1</v>
-      </c>
-      <c r="G18" s="50">
-        <v>2</v>
-      </c>
-      <c r="H18" s="56">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="B12:C12"/>
@@ -1757,16 +1335,15 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J17:J18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:G16">
       <formula1>"1, 2, 3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.78740157480314965" bottom="0.47244094488188981" header="0.55118110236220474" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Página &amp;P&amp;RRegistro de Riesgos</oddFooter>
   </headerFooter>
@@ -1778,25 +1355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DIRDepartment xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <DocumentAuthor xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <DocumentStatus xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d">Active</DocumentStatus>
-    <DocumentKeywords xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <DocumentPublicationDate xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <DocumentType xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d">Standard</DocumentType>
-    <TSLACType xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <TSLACSubject xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Texas DIR Document" ma:contentTypeID="0x0101000BAB836F5FA1384AA72C2AD6D4AC9E6D0039E29B41C585AB4098897B3294D45860" ma:contentTypeVersion="19" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="98bd049c436b88792be3664647f74aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d222814d-fbd4-4986-9c48-5890cfaa490d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26e0f4fa335e9e33d288008ccc549714" ns2:_="">
     <xsd:import namespace="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
@@ -1916,6 +1474,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DIRDepartment xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <DocumentAuthor xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <DocumentStatus xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d">Active</DocumentStatus>
+    <DocumentKeywords xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <DocumentPublicationDate xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <DocumentType xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d">Standard</DocumentType>
+    <TSLACType xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <TSLACSubject xmlns="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1926,29 +1503,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22802FD0-C0A5-494B-AF7D-5BBFA50F9CCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{800EEF73-2359-45B2-943A-F0FA02F7CB2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CBDB32-2E7D-4CEF-9AF1-E2CA82533385}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1965,6 +1519,29 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{800EEF73-2359-45B2-943A-F0FA02F7CB2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22802FD0-C0A5-494B-AF7D-5BBFA50F9CCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d222814d-fbd4-4986-9c48-5890cfaa490d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DF9E2A4-8046-4D31-A37B-572C3681B54C}">
   <ds:schemaRefs>
